--- a/AS_PBL_6/26기(AI)_유주현.xlsx
+++ b/AS_PBL_6/26기(AI)_유주현.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Brainteaser\SKRookies-PBL\AS_PBL_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D11885-CFB8-41C3-99E9-D4961A33FEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3AC113-B809-4E6D-B23B-B9F42E19D69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-5220" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{A821E8F6-2FD6-45FB-8302-5FCC8BA27594}"/>
+    <workbookView xWindow="-25710" yWindow="-5220" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{A821E8F6-2FD6-45FB-8302-5FCC8BA27594}"/>
   </bookViews>
   <sheets>
     <sheet name="각 항목 나열" sheetId="4" r:id="rId1"/>
     <sheet name="매핑 실습" sheetId="1" r:id="rId2"/>
+    <sheet name="보안 통제 항목 예시 파일" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="137">
   <si>
     <t>LLM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,12 +578,41 @@
     <t>28. 쿠키 변조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>보안 통제 항목 예시 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OWASP Top 10 웹 보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wiki.owasp.org/images/b/bd/OWASP_Top_10-2017-ko.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLM 애플리케이션 보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.skshieldus.com/download/files/download.do?o_fname=LLM%20Application%20%EC%B7%A8%EC%95%BD%EC%A0%90%20%EC%A7%84%EB%8B%A8%20%EA%B0%80%EC%9D%B4%EB%93%9C.pdf&amp;r_fname=20241129161501834.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kisa.or.kr/2060204/form?postSeq=12&amp;lang_type=KO&amp;page=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프라 취약점
+주정통 기반 해설서 웹 보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +652,15 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -753,12 +792,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,6 +858,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,6 +868,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -831,72 +897,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1243,13 +1292,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
@@ -1695,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05872AE5-80DC-45C5-BE65-AFACCE7EC131}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F11"/>
     </sheetView>
   </sheetViews>
@@ -1710,26 +1759,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
@@ -1750,268 +1799,268 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="36" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="39"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="29"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="33"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="29"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="29"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="34"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="31">
-        <v>2</v>
-      </c>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="23">
+        <v>2</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="40" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="29"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="31" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="29"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="30"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="31">
+      <c r="A17" s="23">
         <v>3</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="33" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="29"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="39"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="29"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="34"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="39"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="31" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="33" t="s">
         <v>82</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="39"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="29"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="33"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="30"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="34"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="40"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="31">
+      <c r="A23" s="23">
         <v>4</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="32" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="40" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="30"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="31">
+      <c r="A25" s="23">
         <v>5</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="32" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2020,132 +2069,132 @@
       <c r="D25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="28" t="s">
+      <c r="E25" s="33"/>
+      <c r="F25" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="29"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="28"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="30"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="28"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="31">
+      <c r="A28" s="23">
         <v>6</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="23"/>
+      <c r="D28" s="33" t="s">
         <v>81</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="29"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="33"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="31">
+      <c r="A30" s="23">
         <v>7</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="36" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="29"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="39"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="34"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="40"/>
+      <c r="F32" s="38"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="31">
+      <c r="A33" s="23">
         <v>8</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="27"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="36" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="30"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="27"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="40"/>
+      <c r="F34" s="38"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="44">
+      <c r="A35" s="29">
         <v>9</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="26" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2153,39 +2202,39 @@
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
-      <c r="F36" s="28"/>
+      <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="44"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="28"/>
+      <c r="F37" s="35"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="44"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="28"/>
+      <c r="F38" s="35"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F39" s="17"/>
@@ -2201,24 +2250,18 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B17:B22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A2:F2"/>
@@ -2235,20 +2278,84 @@
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19357F76-66A3-46BF-81CE-9954B214AB39}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.09765625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="49.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="87" x14ac:dyDescent="0.4">
+      <c r="A2" s="45"/>
+      <c r="B2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A3" s="45"/>
+      <c r="B3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{B281BAC7-6CD0-43C6-AD6F-48E555AED715}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{D7771129-6BB2-4DE2-8E4E-C68AAB78451A}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{56B1FA83-E5BE-44AC-AE5E-F310C07D592D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>